--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T19:49:37+00:00</t>
+    <t>2022-02-03T09:57:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:57:16+00:00</t>
+    <t>2022-07-25T16:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1410,42 +1410,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="62.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="117.76171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.54296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="171.6640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="121.93359375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="351">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T16:53:30+00:00</t>
+    <t>2023-02-20T00:55:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -247,6 +250,10 @@
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports</t>
   </si>
   <si>
@@ -256,10 +263,6 @@
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -276,353 +279,357 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier</t>
+  </si>
+  <si>
+    <t>ReportID
+Filler IDPlacer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier for report</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this report by the performer or other systems.</t>
+  </si>
+  <si>
+    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
+  </si>
+  <si>
+    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What was requested</t>
+  </si>
+  <si>
+    <t>Details concerning a service requested.</t>
+  </si>
+  <si>
+    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
+  </si>
+  <si>
+    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.status</t>
+  </si>
+  <si>
+    <t>registered | partial | preliminary | final +</t>
+  </si>
+  <si>
+    <t>The status of the diagnostic report.</t>
+  </si>
+  <si>
+    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>OBR-25 (not 1:1 mapping)</t>
+  </si>
+  <si>
+    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category</t>
+  </si>
+  <si>
+    <t>Department
+Sub-departmentServiceDiscipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Service category</t>
+  </si>
+  <si>
+    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type
+</t>
+  </si>
+  <si>
+    <t>Name/Code for this diagnostic report</t>
+  </si>
+  <si>
+    <t>A code or name that describes this diagnostic report.</t>
+  </si>
+  <si>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier</t>
-  </si>
-  <si>
-    <t>ReportID
-Filler IDPlacer ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier for report</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this report by the performer or other systems.</t>
-  </si>
-  <si>
-    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
-  </si>
-  <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>What was requested</t>
-  </si>
-  <si>
-    <t>Details concerning a service requested.</t>
-  </si>
-  <si>
-    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
-  </si>
-  <si>
-    <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.status</t>
-  </si>
-  <si>
-    <t>registered | partial | preliminary | final +</t>
-  </si>
-  <si>
-    <t>The status of the diagnostic report.</t>
-  </si>
-  <si>
-    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>OBR-25 (not 1:1 mapping)</t>
-  </si>
-  <si>
-    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category</t>
-  </si>
-  <si>
-    <t>Department
-Sub-departmentServiceDiscipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Service category</t>
-  </si>
-  <si>
-    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type
-</t>
-  </si>
-  <si>
-    <t>Name/Code for this diagnostic report</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1400,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AN37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1410,44 +1417,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.37890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="117.76171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.3515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="171.66796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1568,19 +1575,22 @@
       <c r="AM1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
         <v>74</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>75</v>
       </c>
@@ -1588,75 +1598,75 @@
         <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>75</v>
@@ -1665,10 +1675,10 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>82</v>
@@ -1677,32 +1687,35 @@
         <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>87</v>
@@ -1716,107 +1729,110 @@
       <c r="M3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>94</v>
@@ -1824,108 +1840,111 @@
       <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -1936,107 +1955,110 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>106</v>
@@ -2047,31 +2069,31 @@
       <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>110</v>
@@ -2080,74 +2102,77 @@
         <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>116</v>
@@ -2158,93 +2183,96 @@
       <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>121</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
@@ -2252,13 +2280,13 @@
         <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>124</v>
@@ -2269,58 +2297,58 @@
       <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2329,33 +2357,36 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
@@ -2363,13 +2394,13 @@
         <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>132</v>
@@ -2380,58 +2411,58 @@
       <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2440,33 +2471,36 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2474,77 +2508,77 @@
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2553,33 +2587,36 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2587,13 +2624,13 @@
         <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>145</v>
@@ -2608,56 +2645,56 @@
         <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2666,10 +2703,10 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>150</v>
@@ -2679,20 +2716,23 @@
       </c>
       <c r="AM11" t="s" s="2">
         <v>152</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2700,13 +2740,13 @@
         <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>156</v>
@@ -2721,56 +2761,56 @@
         <v>159</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2779,10 +2819,10 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>161</v>
@@ -2791,109 +2831,112 @@
         <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>166</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>170</v>
@@ -2903,20 +2946,23 @@
       </c>
       <c r="AM13" t="s" s="2">
         <v>172</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2924,13 +2970,13 @@
         <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>176</v>
@@ -2941,31 +2987,31 @@
       <c r="M14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>180</v>
@@ -2974,25 +3020,25 @@
         <v>181</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3001,119 +3047,122 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>184</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="B15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>190</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>192</v>
@@ -3123,129 +3172,135 @@
       </c>
       <c r="AM15" t="s" s="2">
         <v>194</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3253,75 +3308,75 @@
         <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3330,111 +3385,114 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3443,596 +3501,614 @@
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J22" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>256</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>266</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
@@ -4040,77 +4116,77 @@
         <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4119,33 +4195,36 @@
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>277</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4153,77 +4232,77 @@
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>267</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4232,33 +4311,36 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>277</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4266,77 +4348,77 @@
         <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4345,33 +4427,36 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4379,77 +4464,77 @@
         <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4458,33 +4543,36 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4492,75 +4580,75 @@
         <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4569,33 +4657,36 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4603,75 +4694,75 @@
         <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4680,142 +4771,148 @@
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4823,75 +4920,75 @@
         <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4900,33 +4997,36 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
@@ -4934,77 +5034,77 @@
         <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5013,366 +5113,378 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG34" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J34" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5380,73 +5492,73 @@
         <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>176</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5455,33 +5567,36 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5489,77 +5604,77 @@
         <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5568,19 +5683,22 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T00:55:10+00:00</t>
+    <t>2023-02-20T01:40:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T01:40:12+00:00</t>
+    <t>2023-02-20T01:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T01:58:23+00:00</t>
+    <t>2023-02-20T02:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T02:21:28+00:00</t>
+    <t>2023-02-20T12:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,6 +482,13 @@
     <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -492,6 +499,236 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:uuid</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:uuid.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:uuid.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:uuid.use</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:uuid.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:uuid.system</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://openelis-global.org/analysisResult_uuid</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:uuid.value</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:uuid.period</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:uuid.assigner</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>DiagnosticReport.basedOn</t>
@@ -501,7 +738,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-service-request)
 </t>
   </si>
   <si>
@@ -538,10 +775,7 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
+    <t>http://i-tech-uw.github.io/openelis-global-ig/ValueSet/open-elis-diagnostic-report--status-vs</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -563,10 +797,6 @@
 Sub-departmentServiceDiscipline</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Service category</t>
   </si>
   <si>
@@ -628,39 +858,7 @@
     <t>DiagnosticReport.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.code.coding</t>
@@ -722,7 +920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-patient)
 </t>
   </si>
   <si>
@@ -906,7 +1104,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-specimen)
 </t>
   </si>
   <si>
@@ -932,7 +1130,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-observation)
 </t>
   </si>
   <si>
@@ -1407,7 +1605,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1426,7 +1624,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.3515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.7734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1435,13 +1633,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2618,7 +2816,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -2682,16 +2880,14 @@
         <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>143</v>
@@ -2709,35 +2905,37 @@
         <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2746,22 +2944,22 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2810,7 +3008,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2825,24 +3023,24 @@
         <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2850,7 +3048,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>86</v>
@@ -2859,24 +3057,22 @@
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2900,13 +3096,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -2924,10 +3120,10 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>86</v>
@@ -2936,31 +3132,31 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2976,19 +3172,19 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3014,31 +3210,31 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3050,35 +3246,35 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3087,22 +3283,26 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3126,13 +3326,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3150,10 +3350,10 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3165,24 +3365,24 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3202,19 +3402,23 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3238,13 +3442,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3262,7 +3466,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3274,16 +3478,16 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3291,21 +3495,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3314,21 +3518,23 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3337,10 +3543,10 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3364,40 +3570,40 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3405,10 +3611,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3416,10 +3622,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3431,20 +3637,18 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3456,7 +3660,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3492,13 +3696,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3510,10 +3714,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3521,10 +3725,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3547,20 +3751,16 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3608,7 +3808,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3626,10 +3826,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3637,14 +3837,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3663,18 +3863,18 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3722,7 +3922,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3737,32 +3937,32 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -3774,22 +3974,22 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3838,13 +4038,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -3853,32 +4053,32 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>86</v>
@@ -3887,25 +4087,23 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -3930,13 +4128,11 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3954,10 +4150,10 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>86</v>
@@ -3969,35 +4165,35 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4009,20 +4205,18 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4046,13 +4240,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4070,13 +4264,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4088,32 +4282,32 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4125,20 +4319,16 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4162,13 +4352,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4186,13 +4376,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4201,35 +4391,35 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4238,23 +4428,19 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>280</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4302,43 +4488,43 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>276</v>
+        <v>164</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4357,20 +4543,18 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4406,19 +4590,19 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4430,16 +4614,16 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4447,18 +4631,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -4470,22 +4654,22 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4534,7 +4718,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4552,10 +4736,10 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4563,10 +4747,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4577,7 +4761,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4586,21 +4770,23 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4648,13 +4834,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4666,10 +4852,10 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4677,21 +4863,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4703,17 +4889,17 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4762,13 +4948,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -4777,28 +4963,28 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4814,19 +5000,23 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4874,7 +5064,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4886,38 +5076,38 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4926,21 +5116,23 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4988,74 +5180,74 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>207</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5104,50 +5296,50 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5156,22 +5348,22 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>197</v>
+        <v>334</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5220,13 +5412,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5235,35 +5427,35 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5275,16 +5467,20 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5332,13 +5528,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5347,32 +5543,32 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -5387,17 +5583,19 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>197</v>
+        <v>350</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5446,13 +5644,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5464,10 +5662,10 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5475,21 +5673,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5501,16 +5699,20 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>176</v>
+        <v>358</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5534,13 +5736,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5558,7 +5760,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5576,10 +5778,10 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5587,10 +5789,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5613,20 +5815,18 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5674,7 +5874,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5692,12 +5892,1038 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AN37" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T12:30:13+00:00</t>
+    <t>2023-03-03T05:49:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:08+00:00</t>
+    <t>2023-03-03T05:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:15+00:00</t>
+    <t>2023-03-05T22:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: OpenELIS Vs FHIR</t>
   </si>
   <si>
     <t>Report
@@ -272,6 +275,9 @@
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
+    <t>OE DiagnosticReport</t>
+  </si>
+  <si>
     <t>DiagnosticReport.id</t>
   </si>
   <si>
@@ -297,6 +303,9 @@
     <t>Resource.id</t>
   </si>
   <si>
+    <t>Analysis.fhirUuid</t>
+  </si>
+  <si>
     <t>DiagnosticReport.meta</t>
   </si>
   <si>
@@ -763,6 +772,9 @@
     <t>outboundRelationship[typeCode=FLFS].target</t>
   </si>
   <si>
+    <t>Analysis</t>
+  </si>
+  <si>
     <t>DiagnosticReport.status</t>
   </si>
   <si>
@@ -788,6 +800,9 @@
   </si>
   <si>
     <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t>DiagnosticReport.category</t>
@@ -945,6 +960,9 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>DiagnosticReport.encounter</t>
   </si>
   <si>
@@ -1123,6 +1141,9 @@
     <t>SPM</t>
   </si>
   <si>
+    <t>SampleItem</t>
+  </si>
+  <si>
     <t>DiagnosticReport.result</t>
   </si>
   <si>
@@ -1150,6 +1171,9 @@
   </si>
   <si>
     <t>outboundRelationship[typeCode=COMP].target</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
   <si>
     <t>DiagnosticReport.imagingStudy</t>
@@ -1605,7 +1629,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1653,6 +1677,7 @@
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="30.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1776,6 +1801,9 @@
       <c r="AN1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AO1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1786,5145 +1814,5280 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>27</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO3" t="s" s="2">
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH10" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH14" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>244</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>254</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Z24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>305</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM34" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>342</v>
+      <c r="AO34" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>362</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>372</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF38" t="s" s="2">
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="S46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF46" t="s" s="2">
+      <c r="AI46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AM46" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,16 +57,16 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T22:47:16+00:00</t>
+    <t>2024-12-11T16:37:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -225,6 +225,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: OpenELIS Vs FHIR</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -235,9 +238,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: OpenELIS Vs FHIR</t>
   </si>
   <si>
     <t>Report
@@ -250,9 +250,6 @@
     <t>*</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -266,6 +263,13 @@
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>OE DiagnosticReport</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -273,9 +277,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>OE DiagnosticReport</t>
   </si>
   <si>
     <t>DiagnosticReport.id</t>
@@ -645,7 +646,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://openelis-global.org/analysisResult_uuid</t>
+    <t>https://demo.openelis-global.org/analysisResult_uuid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -763,6 +764,9 @@
     <t>This allows tracing of authorization for the report and tracking whether proposals/recommendations were acted upon.</t>
   </si>
   <si>
+    <t>Analysis</t>
+  </si>
+  <si>
     <t>Event.basedOn</t>
   </si>
   <si>
@@ -772,9 +776,6 @@
     <t>outboundRelationship[typeCode=FLFS].target</t>
   </si>
   <si>
-    <t>Analysis</t>
-  </si>
-  <si>
     <t>DiagnosticReport.status</t>
   </si>
   <si>
@@ -787,7 +788,10 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/ValueSet/open-elis-diagnostic-report--status-vs</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -800,9 +804,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
   <si>
     <t>DiagnosticReport.category</t>
@@ -948,6 +949,9 @@
     <t>SHALL know the subject context.</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -958,9 +962,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>patient</t>
   </si>
   <si>
     <t>DiagnosticReport.encounter</t>
@@ -1138,10 +1139,10 @@
     <t>Need to be able to report information about the collected specimens on which the report is based.</t>
   </si>
   <si>
+    <t>SampleItem</t>
+  </si>
+  <si>
     <t>SPM</t>
-  </si>
-  <si>
-    <t>SampleItem</t>
   </si>
   <si>
     <t>DiagnosticReport.result</t>
@@ -1167,13 +1168,13 @@
     <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>OBXs</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=COMP].target</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
   <si>
     <t>DiagnosticReport.imagingStudy</t>
@@ -1456,10 +1457,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1663,7 +1664,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1673,11 +1674,11 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="30.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.0" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="171.66796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="121.93359375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1824,72 +1825,72 @@
         <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>27</v>
@@ -1901,10 +1902,10 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>83</v>
@@ -1916,10 +1917,10 @@
         <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -1931,7 +1932,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1941,10 +1942,10 @@
         <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>89</v>
@@ -1963,50 +1964,50 @@
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>94</v>
@@ -2018,25 +2019,25 @@
         <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -2048,7 +2049,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -2058,10 +2059,10 @@
         <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>89</v>
@@ -2078,50 +2079,50 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>100</v>
@@ -2133,25 +2134,25 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -2163,7 +2164,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2173,7 +2174,7 @@
         <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>89</v>
@@ -2195,50 +2196,50 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>107</v>
@@ -2250,25 +2251,25 @@
         <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -2280,7 +2281,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2290,13 +2291,13 @@
         <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>109</v>
@@ -2312,26 +2313,26 @@
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>113</v>
@@ -2343,19 +2344,19 @@
         <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>116</v>
@@ -2367,25 +2368,25 @@
         <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -2407,13 +2408,13 @@
         <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>119</v>
@@ -2429,50 +2430,50 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>123</v>
@@ -2484,25 +2485,25 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AN7" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO7" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -2524,13 +2525,13 @@
         <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>127</v>
@@ -2546,50 +2547,50 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>131</v>
@@ -2601,25 +2602,25 @@
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AN8" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO8" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -2641,13 +2642,13 @@
         <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>135</v>
@@ -2663,50 +2664,50 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2718,25 +2719,25 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AN9" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO9" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -2758,13 +2759,13 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>135</v>
@@ -2782,50 +2783,50 @@
         <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>145</v>
@@ -2837,25 +2838,25 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AN10" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO10" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -2877,10 +2878,10 @@
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>89</v>
@@ -2901,45 +2902,45 @@
         <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>154</v>
@@ -2954,25 +2955,25 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -2996,10 +2997,10 @@
         <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>89</v>
@@ -3020,50 +3021,50 @@
         <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>146</v>
@@ -3075,25 +3076,25 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -3105,7 +3106,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3115,13 +3116,13 @@
         <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>163</v>
@@ -3135,50 +3136,50 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>166</v>
@@ -3190,25 +3191,25 @@
         <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN13" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO13" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -3230,13 +3231,13 @@
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>135</v>
@@ -3252,38 +3253,38 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="s" s="2">
         <v>171</v>
@@ -3292,7 +3293,7 @@
         <v>172</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>154</v>
@@ -3307,25 +3308,25 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN14" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -3337,7 +3338,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3347,7 +3348,7 @@
         <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>89</v>
@@ -3371,26 +3372,26 @@
         <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>180</v>
@@ -3402,19 +3403,19 @@
         <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>183</v>
@@ -3426,25 +3427,25 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AN15" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO15" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -3456,7 +3457,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3466,10 +3467,10 @@
         <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
@@ -3490,26 +3491,26 @@
         <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X16" t="s" s="2">
         <v>192</v>
@@ -3521,19 +3522,19 @@
         <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>195</v>
@@ -3545,25 +3546,25 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AN16" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -3575,7 +3576,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3585,10 +3586,10 @@
         <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
@@ -3609,11 +3610,11 @@
         <v>202</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>203</v>
@@ -3622,37 +3623,37 @@
         <v>204</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>205</v>
@@ -3664,25 +3665,25 @@
         <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN17" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO17" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -3694,7 +3695,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3704,10 +3705,10 @@
         <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
@@ -3726,50 +3727,50 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>213</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>214</v>
@@ -3781,25 +3782,25 @@
         <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AN18" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -3811,7 +3812,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3821,10 +3822,10 @@
         <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>89</v>
@@ -3841,50 +3842,50 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>222</v>
@@ -3896,25 +3897,25 @@
         <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -3926,7 +3927,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3936,10 +3937,10 @@
         <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>89</v>
@@ -3958,50 +3959,50 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>231</v>
@@ -4013,25 +4014,25 @@
         <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO20" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -4053,13 +4054,13 @@
         <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>236</v>
@@ -4077,50 +4078,50 @@
         <v>240</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>234</v>
@@ -4132,7 +4133,7 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>101</v>
@@ -4147,10 +4148,10 @@
         <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>244</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -4162,7 +4163,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4172,7 +4173,7 @@
         <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>89</v>
@@ -4194,48 +4195,50 @@
         <v>248</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y22" s="2"/>
+      <c r="Y22" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="Z22" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>245</v>
@@ -4247,7 +4250,7 @@
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>101</v>
@@ -4287,10 +4290,10 @@
         <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>89</v>
@@ -4309,26 +4312,26 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X23" t="s" s="2">
         <v>260</v>
@@ -4340,19 +4343,19 @@
         <v>262</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>255</v>
@@ -4364,25 +4367,25 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -4404,10 +4407,10 @@
         <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>89</v>
@@ -4424,26 +4427,26 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>113</v>
@@ -4455,19 +4458,19 @@
         <v>271</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>266</v>
@@ -4479,25 +4482,25 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -4509,7 +4512,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4519,13 +4522,13 @@
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>163</v>
@@ -4539,50 +4542,50 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>166</v>
@@ -4594,25 +4597,25 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN25" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -4634,13 +4637,13 @@
         <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>135</v>
@@ -4656,38 +4659,38 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>171</v>
@@ -4696,7 +4699,7 @@
         <v>172</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>154</v>
@@ -4711,25 +4714,25 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN26" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -4741,7 +4744,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4751,10 +4754,10 @@
         <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>89</v>
@@ -4775,50 +4778,50 @@
         <v>283</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>284</v>
@@ -4830,25 +4833,25 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AN27" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -4860,7 +4863,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4870,10 +4873,10 @@
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>89</v>
@@ -4894,50 +4897,50 @@
         <v>291</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>292</v>
@@ -4949,25 +4952,25 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AN28" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -4989,10 +4992,10 @@
         <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>89</v>
@@ -5011,50 +5014,50 @@
         <v>300</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>295</v>
@@ -5066,7 +5069,7 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>101</v>
@@ -5106,10 +5109,10 @@
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>89</v>
@@ -5130,50 +5133,50 @@
         <v>312</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>306</v>
@@ -5185,25 +5188,25 @@
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -5225,10 +5228,10 @@
         <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>89</v>
@@ -5249,50 +5252,50 @@
         <v>323</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>317</v>
@@ -5304,25 +5307,25 @@
         <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -5344,10 +5347,10 @@
         <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>89</v>
@@ -5368,50 +5371,50 @@
         <v>334</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>328</v>
@@ -5423,25 +5426,25 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5463,10 +5466,10 @@
         <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>89</v>
@@ -5487,50 +5490,50 @@
         <v>344</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>338</v>
@@ -5542,25 +5545,25 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -5582,10 +5585,10 @@
         <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>89</v>
@@ -5606,50 +5609,50 @@
         <v>344</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>349</v>
@@ -5661,25 +5664,25 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -5691,7 +5694,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5701,13 +5704,13 @@
         <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>356</v>
@@ -5725,50 +5728,50 @@
         <v>360</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>355</v>
@@ -5780,25 +5783,25 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>361</v>
+        <v>17</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>362</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -5820,13 +5823,13 @@
         <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>365</v>
@@ -5844,50 +5847,50 @@
         <v>369</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>363</v>
@@ -5899,25 +5902,25 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>370</v>
+        <v>17</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>371</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>372</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -5929,7 +5932,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5939,13 +5942,13 @@
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>374</v>
@@ -5961,50 +5964,50 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>373</v>
@@ -6016,25 +6019,25 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AN37" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -6056,10 +6059,10 @@
         <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>89</v>
@@ -6078,50 +6081,50 @@
         <v>384</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>379</v>
@@ -6133,25 +6136,25 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM38" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -6163,7 +6166,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6173,13 +6176,13 @@
         <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>163</v>
@@ -6193,50 +6196,50 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>166</v>
@@ -6248,25 +6251,25 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN39" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -6288,13 +6291,13 @@
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>135</v>
@@ -6310,50 +6313,50 @@
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>173</v>
@@ -6365,25 +6368,25 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN40" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -6405,7 +6408,7 @@
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>89</v>
@@ -6429,50 +6432,50 @@
         <v>144</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>392</v>
@@ -6484,25 +6487,25 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AN41" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -6514,7 +6517,7 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6524,13 +6527,13 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>163</v>
@@ -6548,50 +6551,50 @@
         <v>397</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>393</v>
@@ -6603,25 +6606,25 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AN42" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -6633,7 +6636,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6643,10 +6646,10 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>89</v>
@@ -6663,50 +6666,50 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>399</v>
@@ -6718,25 +6721,25 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AN43" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO43" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -6758,13 +6761,13 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>163</v>
@@ -6780,50 +6783,50 @@
         <v>408</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>404</v>
@@ -6835,25 +6838,25 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AN44" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO44" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -6865,7 +6868,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6875,13 +6878,13 @@
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>187</v>
@@ -6895,26 +6898,26 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>260</v>
@@ -6926,19 +6929,19 @@
         <v>415</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>411</v>
@@ -6950,25 +6953,25 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN45" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO45" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -6980,7 +6983,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6990,13 +6993,13 @@
         <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>418</v>
@@ -7014,50 +7017,50 @@
         <v>422</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>417</v>
@@ -7069,25 +7072,25 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AN46" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-diagnostic-report</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-diagnostic-report</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:57+00:00</t>
+    <t>2025-05-14T18:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -748,7 +748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-service-request)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-service-request)
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-patient)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-patient)
 </t>
   </si>
   <si>
@@ -1123,7 +1123,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-specimen)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-specimen)
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-observation)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-observation)
 </t>
   </si>
   <si>
@@ -1639,17 +1639,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="53.34375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.7734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1658,27 +1658,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.90625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="171.66796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="147.17578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="104.53515625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T18:24:04+00:00</t>
+    <t>2025-05-14T18:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
